--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvadner\Desktop\Spring 2021\GPU\cuda-image-grayscale\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9089EB-EC4A-485D-B236-5CFAD9759F81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A2B48C-2A3B-4E9B-B2E3-76E7D5289E64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="38">
   <si>
     <t>GPU</t>
   </si>
@@ -109,6 +109,36 @@
   </si>
   <si>
     <t>6.2710us</t>
+  </si>
+  <si>
+    <t>92.319us</t>
+  </si>
+  <si>
+    <t>20.864us</t>
+  </si>
+  <si>
+    <t>42.496us</t>
+  </si>
+  <si>
+    <t>1.0238ms</t>
+  </si>
+  <si>
+    <t>161.98ms</t>
+  </si>
+  <si>
+    <t>332.00ms</t>
+  </si>
+  <si>
+    <t>55.104us</t>
+  </si>
+  <si>
+    <t>25.983us</t>
+  </si>
+  <si>
+    <t>5.2404ms</t>
+  </si>
+  <si>
+    <t>1.7016ms</t>
   </si>
 </sst>
 </file>
@@ -429,7 +459,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -464,6 +494,15 @@
       <c r="C2" t="s">
         <v>9</v>
       </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -517,6 +556,15 @@
       <c r="C6" t="s">
         <v>9</v>
       </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
@@ -570,6 +618,15 @@
       <c r="C10" t="s">
         <v>9</v>
       </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
@@ -622,6 +679,15 @@
       </c>
       <c r="C14" t="s">
         <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14">
+        <v>3.8532000000000002</v>
+      </c>
+      <c r="F14" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvadner\Desktop\Spring 2021\GPU\cuda-image-grayscale\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A2B48C-2A3B-4E9B-B2E3-76E7D5289E64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF6C11E-DBF8-47FA-B650-3584496D1B41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="51">
   <si>
     <t>GPU</t>
   </si>
@@ -139,6 +139,45 @@
   </si>
   <si>
     <t>1.7016ms</t>
+  </si>
+  <si>
+    <t>34.496us</t>
+  </si>
+  <si>
+    <t>91.615us</t>
+  </si>
+  <si>
+    <t>13.024us</t>
+  </si>
+  <si>
+    <t>943.13us</t>
+  </si>
+  <si>
+    <t>161.63us</t>
+  </si>
+  <si>
+    <t>85.247us</t>
+  </si>
+  <si>
+    <t>55.679us</t>
+  </si>
+  <si>
+    <t>12.640us</t>
+  </si>
+  <si>
+    <t>9.4400us</t>
+  </si>
+  <si>
+    <t>4.9417ms</t>
+  </si>
+  <si>
+    <t>3.9578ms</t>
+  </si>
+  <si>
+    <t>3.8532ms</t>
+  </si>
+  <si>
+    <t>427.84us</t>
   </si>
 </sst>
 </file>
@@ -459,7 +498,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -514,6 +553,15 @@
       <c r="C3" t="s">
         <v>10</v>
       </c>
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -576,6 +624,15 @@
       <c r="C7" t="s">
         <v>10</v>
       </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
@@ -638,6 +695,15 @@
       <c r="C11" t="s">
         <v>10</v>
       </c>
+      <c r="D11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
@@ -683,8 +749,8 @@
       <c r="D14" t="s">
         <v>36</v>
       </c>
-      <c r="E14">
-        <v>3.8532000000000002</v>
+      <c r="E14" t="s">
+        <v>49</v>
       </c>
       <c r="F14" t="s">
         <v>37</v>
@@ -699,6 +765,15 @@
       </c>
       <c r="C15" t="s">
         <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
